--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6126</v>
+        <v>1.5883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5412</v>
+        <v>0.5841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2577</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="3">
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0154</v>
+        <v>-0.1657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1859</v>
+        <v>0.3853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9342</v>
+        <v>0.6672</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0747</v>
+        <v>0.288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1673</v>
+        <v>0.2157</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4842</v>
+        <v>0.149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1587</v>
+        <v>0.223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0023</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="6">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9974</v>
+        <v>-0.3139</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2074</v>
+        <v>0.8305</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.7054</v>
       </c>
     </row>
     <row r="7">
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9714</v>
+        <v>0.4095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1847</v>
+        <v>0.2231</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="8">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8565</v>
+        <v>0.3838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1613</v>
+        <v>0.2084</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0656</v>
       </c>
     </row>
     <row r="9">
@@ -539,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4182</v>
+        <v>-0.2931</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1914</v>
+        <v>0.8827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0289</v>
+        <v>0.7399</v>
       </c>
     </row>
     <row r="10">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9228</v>
+        <v>0.3606</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3238</v>
+        <v>0.3086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0044</v>
+        <v>0.2426</v>
       </c>
     </row>
     <row r="11">
@@ -567,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0159</v>
+        <v>0.2009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2904</v>
+        <v>0.3074</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9562</v>
+        <v>0.5134</v>
       </c>
     </row>
     <row r="12">
@@ -581,13 +581,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0405</v>
+        <v>0.3958</v>
       </c>
       <c r="C12" t="n">
-        <v>0.43</v>
+        <v>0.4672</v>
       </c>
       <c r="D12" t="n">
-        <v>0.925</v>
+        <v>0.3969</v>
       </c>
     </row>
     <row r="13">
@@ -595,13 +595,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0878</v>
+        <v>0.5143</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4834</v>
+        <v>0.5235</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8559</v>
+        <v>0.3259</v>
       </c>
     </row>
     <row r="14">
@@ -609,13 +609,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1595</v>
+        <v>0.5504</v>
       </c>
       <c r="C14" t="n">
-        <v>0.511</v>
+        <v>0.5427</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7549</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="15">
@@ -623,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2232</v>
+        <v>0.5372</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5351</v>
+        <v>0.5597</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6766</v>
+        <v>0.3372</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +637,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2671</v>
+        <v>0.5724</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5405</v>
+        <v>0.5642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6211</v>
+        <v>0.3103</v>
       </c>
     </row>
     <row r="17">
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2267</v>
+        <v>0.6515</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5351</v>
+        <v>0.5603</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6718</v>
+        <v>0.2449</v>
       </c>
     </row>
     <row r="18">
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0791</v>
+        <v>0.597</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5313</v>
+        <v>0.5576</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8816</v>
+        <v>0.2844</v>
       </c>
     </row>
     <row r="19">
@@ -679,13 +679,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0047</v>
+        <v>0.501</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5338</v>
+        <v>0.5561</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9929</v>
+        <v>0.3676</v>
       </c>
     </row>
     <row r="20">
@@ -693,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1685</v>
+        <v>0.5085</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5286</v>
+        <v>0.5452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7499</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="21">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4538</v>
+        <v>0.5858</v>
       </c>
       <c r="C21" t="n">
-        <v>0.541</v>
+        <v>0.5525</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4015</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="22">
@@ -721,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7581</v>
+        <v>0.6748</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6671</v>
+        <v>0.6711</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2558</v>
+        <v>0.3146</v>
       </c>
     </row>
     <row r="23">
@@ -735,10 +735,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6235</v>
+        <v>-1.3452</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0489</v>
+        <v>0.088</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.9558</v>
+        <v>10.8778</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0278</v>
+        <v>12.7466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6273</v>
+        <v>0.3934</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5943</v>
+        <v>0.4866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7568</v>
+        <v>0.3391</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4323</v>
+        <v>0.1512</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,24 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>-5.392</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>26.9782</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3814</v>
+        <v>0.3978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7258</v>
+        <v>0.3188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5993</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="7">
@@ -873,13 +869,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.4614</v>
+        <v>-6.361</v>
       </c>
       <c r="C10" t="n">
-        <v>2.1697</v>
+        <v>10.8758</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2566</v>
+        <v>0.5586</v>
       </c>
     </row>
     <row r="11">
@@ -887,13 +883,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8456</v>
+        <v>-2.9097</v>
       </c>
       <c r="C11" t="n">
-        <v>3.1786</v>
+        <v>2.9619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7902</v>
+        <v>0.3259</v>
       </c>
     </row>
     <row r="12">
@@ -901,13 +897,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.6672</v>
+        <v>-5.582</v>
       </c>
       <c r="C12" t="n">
-        <v>4.7786</v>
+        <v>5.05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7272</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="13">
@@ -915,13 +911,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.378</v>
+        <v>-7.6948</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2968</v>
+        <v>7.2608</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6535</v>
+        <v>0.2892</v>
       </c>
     </row>
     <row r="14">
@@ -929,13 +925,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.939</v>
+        <v>-9.2431</v>
       </c>
       <c r="C14" t="n">
-        <v>5.1766</v>
+        <v>9.4241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5702</v>
+        <v>0.3267</v>
       </c>
     </row>
     <row r="15">
@@ -943,13 +939,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.338</v>
+        <v>-10.2268</v>
       </c>
       <c r="C15" t="n">
-        <v>4.7822</v>
+        <v>11.2768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4852</v>
+        <v>0.3645</v>
       </c>
     </row>
     <row r="16">
@@ -957,13 +953,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.594</v>
+        <v>-10.6459</v>
       </c>
       <c r="C16" t="n">
-        <v>4.348</v>
+        <v>12.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4085</v>
+        <v>0.3944</v>
       </c>
     </row>
     <row r="17">
@@ -971,13 +967,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.7277</v>
+        <v>-10.5861</v>
       </c>
       <c r="C17" t="n">
-        <v>4.1494</v>
+        <v>12.8267</v>
       </c>
       <c r="D17" t="n">
-        <v>0.369</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="18">
@@ -985,13 +981,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.7499</v>
+        <v>-9.9481</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0964</v>
+        <v>12.7392</v>
       </c>
       <c r="D18" t="n">
-        <v>0.36</v>
+        <v>0.4349</v>
       </c>
     </row>
     <row r="19">
@@ -999,13 +995,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.6644</v>
+        <v>-9.8913</v>
       </c>
       <c r="C19" t="n">
-        <v>4.1165</v>
+        <v>12.7469</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3734</v>
+        <v>0.4378</v>
       </c>
     </row>
     <row r="20">
@@ -1013,13 +1009,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.535</v>
+        <v>-9.545</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0653</v>
+        <v>12.755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3845</v>
+        <v>0.4543</v>
       </c>
     </row>
     <row r="21">
@@ -1027,13 +1023,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.4139</v>
+        <v>-9.8953</v>
       </c>
       <c r="C21" t="n">
-        <v>4.0591</v>
+        <v>12.8016</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4003</v>
+        <v>0.4395</v>
       </c>
     </row>
     <row r="22">
@@ -1041,13 +1037,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.2935</v>
+        <v>-10.2585</v>
       </c>
       <c r="C22" t="n">
-        <v>5.3979</v>
+        <v>13.2301</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5418</v>
+        <v>0.4381</v>
       </c>
     </row>
     <row r="23">
@@ -1055,13 +1051,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2989</v>
+        <v>-0.6258</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.1822</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
     </row>
   </sheetData>

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -441,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5006</v>
+        <v>1.4074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5203</v>
+        <v>0.333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1614</v>
+        <v>-0.0893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3012</v>
+        <v>0.1335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.592</v>
+        <v>0.5034</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3008</v>
+        <v>0.5819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1811</v>
+        <v>0.1123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.14</v>
+        <v>0.2151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1864</v>
+        <v>0.109</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4526</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="6">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3088</v>
+        <v>-0.3358</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5905</v>
+        <v>0.1438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6009</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="7">
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4023</v>
+        <v>0.5528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1892</v>
+        <v>0.1226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.367</v>
+        <v>0.4684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1751</v>
+        <v>0.1086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -539,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2809</v>
+        <v>-0.1304</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5956</v>
+        <v>0.1315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6372</v>
+        <v>0.3214</v>
       </c>
     </row>
     <row r="10">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3463</v>
+        <v>0.5657</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2742</v>
+        <v>0.2043</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2065</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="11">
@@ -567,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1975</v>
+        <v>0.0189</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2795</v>
+        <v>0.182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4798</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="12">
@@ -581,13 +581,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.39</v>
+        <v>0.0446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4221</v>
+        <v>0.2659</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3555</v>
+        <v>0.8666</v>
       </c>
     </row>
     <row r="13">
@@ -595,13 +595,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5138</v>
+        <v>0.0862</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4714</v>
+        <v>0.2955</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2758</v>
+        <v>0.7704</v>
       </c>
     </row>
     <row r="14">
@@ -609,13 +609,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5614</v>
+        <v>0.1422</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4883</v>
+        <v>0.3116</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2503</v>
+        <v>0.6481</v>
       </c>
     </row>
     <row r="15">
@@ -623,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5573</v>
+        <v>0.1848</v>
       </c>
       <c r="C15" t="n">
-        <v>0.504</v>
+        <v>0.3274</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2689</v>
+        <v>0.5725</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +637,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5876</v>
+        <v>0.2147</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5081</v>
+        <v>0.3315</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2474</v>
+        <v>0.5171</v>
       </c>
     </row>
     <row r="17">
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6515</v>
+        <v>0.2106</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5046</v>
+        <v>0.3282</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1967</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="18">
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5901</v>
+        <v>0.121</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5024</v>
+        <v>0.3257</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2402</v>
+        <v>0.7102</v>
       </c>
     </row>
     <row r="19">
@@ -679,13 +679,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4991</v>
+        <v>0.0518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5016</v>
+        <v>0.3269</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3198</v>
+        <v>0.8742</v>
       </c>
     </row>
     <row r="20">
@@ -693,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5167</v>
+        <v>0.1224</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4917</v>
+        <v>0.3227</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2933</v>
+        <v>0.7044</v>
       </c>
     </row>
     <row r="21">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6117</v>
+        <v>0.2852</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4973</v>
+        <v>0.331</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2186</v>
+        <v>0.3889</v>
       </c>
     </row>
     <row r="22">
@@ -721,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7204</v>
+        <v>0.4646</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6068</v>
+        <v>0.415</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2351</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="23">
@@ -735,10 +735,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.3215</v>
+        <v>-1.1475</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0803</v>
+        <v>0.0509</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8778</v>
+        <v>1.6583</v>
       </c>
       <c r="C2" t="n">
-        <v>12.7466</v>
+        <v>0.6957</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3934</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="3">
@@ -791,91 +791,111 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4866</v>
+        <v>0.0946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3391</v>
+        <v>0.1965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1512</v>
+        <v>0.6303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>-0.4865</v>
+      </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4"/>
+        <v>0.263</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0643</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>-0.6508</v>
+      </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5"/>
+        <v>0.2328</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0052</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3978</v>
+        <v>0.0775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3188</v>
+        <v>0.1933</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212</v>
+        <v>0.6885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>-0.8242</v>
+      </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7"/>
+        <v>0.3553</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0204</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>-0.403</v>
+      </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8"/>
+        <v>0.2343</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0854</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="n">
+        <v>-1.0292</v>
+      </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9"/>
+        <v>0.5712</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0716</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.361</v>
+        <v>-0.5502</v>
       </c>
       <c r="C10" t="n">
-        <v>10.8758</v>
+        <v>0.45</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5586</v>
+        <v>0.2214</v>
       </c>
     </row>
     <row r="11">
@@ -883,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.9097</v>
+        <v>-0.471</v>
       </c>
       <c r="C11" t="n">
-        <v>2.9619</v>
+        <v>0.4191</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3259</v>
+        <v>0.2611</v>
       </c>
     </row>
     <row r="12">
@@ -897,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.582</v>
+        <v>-0.8691</v>
       </c>
       <c r="C12" t="n">
-        <v>5.05</v>
+        <v>0.5821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.269</v>
+        <v>0.1354</v>
       </c>
     </row>
     <row r="13">
@@ -911,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>-7.6948</v>
+        <v>-1.0259</v>
       </c>
       <c r="C13" t="n">
-        <v>7.2608</v>
+        <v>0.6293</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2892</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="14">
@@ -925,13 +945,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>-9.2431</v>
+        <v>-1.0654</v>
       </c>
       <c r="C14" t="n">
-        <v>9.4241</v>
+        <v>0.6575</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3267</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="15">
@@ -939,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>-10.2268</v>
+        <v>-1.1697</v>
       </c>
       <c r="C15" t="n">
-        <v>11.2768</v>
+        <v>0.6987</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3645</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="16">
@@ -953,13 +973,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>-10.6459</v>
+        <v>-1.3606</v>
       </c>
       <c r="C16" t="n">
-        <v>12.5</v>
+        <v>0.7173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3944</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="17">
@@ -967,13 +987,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>-10.5861</v>
+        <v>-1.4699</v>
       </c>
       <c r="C17" t="n">
-        <v>12.8267</v>
+        <v>0.7077</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4092</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="18">
@@ -981,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>-9.9481</v>
+        <v>-1.3971</v>
       </c>
       <c r="C18" t="n">
-        <v>12.7392</v>
+        <v>0.6951</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4349</v>
+        <v>0.0444</v>
       </c>
     </row>
     <row r="19">
@@ -995,13 +1015,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>-9.8913</v>
+        <v>-1.2276</v>
       </c>
       <c r="C19" t="n">
-        <v>12.7469</v>
+        <v>0.7009</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4378</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="20">
@@ -1009,13 +1029,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>-9.545</v>
+        <v>-1.0127</v>
       </c>
       <c r="C20" t="n">
-        <v>12.755</v>
+        <v>0.6905</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4543</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="21">
@@ -1023,13 +1043,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.8953</v>
+        <v>-0.7326</v>
       </c>
       <c r="C21" t="n">
-        <v>12.8016</v>
+        <v>0.6972</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4395</v>
+        <v>0.2934</v>
       </c>
     </row>
     <row r="22">
@@ -1037,13 +1057,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>-10.2585</v>
+        <v>-0.4295</v>
       </c>
       <c r="C22" t="n">
-        <v>13.2301</v>
+        <v>0.9028</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4381</v>
+        <v>0.6343</v>
       </c>
     </row>
     <row r="23">
@@ -1051,13 +1071,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6258</v>
+        <v>-0.6059</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1822</v>
+        <v>0.0678</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -30,22 +30,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
+    <t xml:space="preserve">ParkEifel</t>
+  </si>
+  <si>
     <t xml:space="preserve">ParkHainich</t>
   </si>
   <si>
     <t xml:space="preserve">ParkHunsrueck</t>
   </si>
   <si>
+    <t xml:space="preserve">ParkJasmund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParkKellerwald</t>
+  </si>
+  <si>
     <t xml:space="preserve">ParkSaechs_Schw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParkJasmund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParkKellerwald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParkEiffel</t>
   </si>
   <si>
     <t xml:space="preserve">ParkVorpomm</t>
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1614</v>
+        <v>0.367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3012</v>
+        <v>0.1751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.592</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3008</v>
+        <v>-0.1614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1811</v>
+        <v>0.3012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0967</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.14</v>
+        <v>0.3008</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1864</v>
+        <v>0.1811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4526</v>
+        <v>0.0967</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.367</v>
+        <v>0.14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1751</v>
+        <v>0.1864</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0361</v>
+        <v>0.4526</v>
       </c>
     </row>
     <row r="9">
@@ -790,25 +790,25 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.4866</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.3391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1512</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>0.4866</v>
+      </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4"/>
+        <v>0.3391</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1512</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -30,22 +30,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
+    <t xml:space="preserve">ParkEifel</t>
+  </si>
+  <si>
     <t xml:space="preserve">ParkHainich</t>
   </si>
   <si>
     <t xml:space="preserve">ParkHunsrueck</t>
   </si>
   <si>
+    <t xml:space="preserve">ParkJasmund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParkKellerwald</t>
+  </si>
+  <si>
     <t xml:space="preserve">ParkSaechs_Schw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParkJasmund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParkKellerwald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParkEiffel</t>
   </si>
   <si>
     <t xml:space="preserve">ParkVorpomm</t>
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0893</v>
+        <v>0.4684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1335</v>
+        <v>0.1086</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5819</v>
+        <v>-0.0893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1123</v>
+        <v>0.1335</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5034</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2151</v>
+        <v>0.5819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109</v>
+        <v>0.1123</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4684</v>
+        <v>0.2151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1086</v>
+        <v>0.109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="9">
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0946</v>
+        <v>-0.403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1965</v>
+        <v>0.2343</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6303</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="4">
@@ -805,13 +805,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4865</v>
+        <v>0.0946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.263</v>
+        <v>0.1965</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0643</v>
+        <v>0.6303</v>
       </c>
     </row>
     <row r="5">
@@ -819,13 +819,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6508</v>
+        <v>-0.4865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2328</v>
+        <v>0.263</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0052</v>
+        <v>0.0643</v>
       </c>
     </row>
     <row r="6">
@@ -861,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.403</v>
+        <v>-0.6508</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2343</v>
+        <v>0.2328</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0854</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="9">

--- a/tables/model_summaries_non_park_comparison.xlsx
+++ b/tables/model_summaries_non_park_comparison.xlsx
@@ -441,10 +441,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2.1328</v>
+        <v>1.995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3086</v>
+        <v>0.3286</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -455,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3513</v>
+        <v>0.5973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1754</v>
+        <v>0.1661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0452</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4">
@@ -469,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1743</v>
+        <v>-0.1298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2995</v>
+        <v>0.233</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5607</v>
+        <v>0.5774</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2866</v>
+        <v>0.3552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1815</v>
+        <v>0.1763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1144</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="6">
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.315</v>
+        <v>-0.2309</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5718</v>
+        <v>0.3212</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5817</v>
+        <v>0.4723</v>
       </c>
     </row>
     <row r="7">
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3802</v>
+        <v>0.5263</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1914</v>
+        <v>0.1924</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0469</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="8">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1454</v>
+        <v>0.1948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1871</v>
+        <v>0.1771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4372</v>
+        <v>0.2714</v>
       </c>
     </row>
     <row r="9">
@@ -539,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2981</v>
+        <v>-0.1604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5973</v>
+        <v>0.2829</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6177</v>
+        <v>0.5707</v>
       </c>
     </row>
     <row r="10">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.354</v>
+        <v>0.4122</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3412</v>
+        <v>0.3443</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2995</v>
+        <v>0.2311</v>
       </c>
     </row>
     <row r="11">
@@ -567,13 +567,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0462</v>
+        <v>-0.0234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2272</v>
+        <v>0.2476</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8387</v>
+        <v>0.9248</v>
       </c>
     </row>
     <row r="12">
@@ -581,13 +581,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0662</v>
+        <v>-0.0139</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2904</v>
+        <v>0.3245</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8197</v>
+        <v>0.9659</v>
       </c>
     </row>
     <row r="13">
@@ -595,13 +595,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0049</v>
+        <v>0.1324</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2811</v>
+        <v>0.315</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9861</v>
+        <v>0.6743</v>
       </c>
     </row>
     <row r="14">
@@ -609,13 +609,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0034</v>
+        <v>0.2194</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2631</v>
+        <v>0.2933</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9898</v>
+        <v>0.4545</v>
       </c>
     </row>
     <row r="15">
@@ -623,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.095</v>
+        <v>0.0665</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2623</v>
+        <v>0.2919</v>
       </c>
       <c r="D15" t="n">
-        <v>0.717</v>
+        <v>0.8197</v>
       </c>
     </row>
     <row r="16">
@@ -637,13 +637,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.137</v>
+        <v>-0.0084</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2822</v>
+        <v>0.308</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6273</v>
+        <v>0.9784</v>
       </c>
     </row>
     <row r="17">
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1825</v>
+        <v>-0.0668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3264</v>
+        <v>0.3466</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5761</v>
+        <v>0.8473</v>
       </c>
     </row>
     <row r="18">
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2675</v>
+        <v>-0.1587</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3789</v>
+        <v>0.3993</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4803</v>
+        <v>0.691</v>
       </c>
     </row>
     <row r="19">
@@ -679,13 +679,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.297</v>
+        <v>-0.1932</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4097</v>
+        <v>0.4323</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4685</v>
+        <v>0.6549</v>
       </c>
     </row>
     <row r="20">
@@ -693,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.245</v>
+        <v>-0.1503</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4323</v>
+        <v>0.4522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5709</v>
+        <v>0.7395</v>
       </c>
     </row>
     <row r="21">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2255</v>
+        <v>-0.1439</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4906</v>
+        <v>0.5112</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6458</v>
+        <v>0.7783</v>
       </c>
     </row>
     <row r="22">
@@ -721,13 +721,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2132</v>
+        <v>-0.1448</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6461</v>
+        <v>0.6737</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7415</v>
+        <v>0.8298</v>
       </c>
     </row>
     <row r="23">
@@ -735,10 +735,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.3204</v>
+        <v>-0.886</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0809</v>
+        <v>0.0543</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.05</v>
+        <v>-1.4781</v>
       </c>
       <c r="C2" t="n">
-        <v>6.8395</v>
+        <v>6.7583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.878</v>
+        <v>0.8269</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.7078</v>
+        <v>-1.1122</v>
       </c>
       <c r="C3" t="n">
-        <v>52520.9888</v>
+        <v>25.8366</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9657</v>
       </c>
     </row>
     <row r="4">
@@ -805,13 +805,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5188</v>
+        <v>0.6574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3428</v>
+        <v>0.3803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1301</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="5">
@@ -819,13 +819,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.7081</v>
+        <v>-1.1195</v>
       </c>
       <c r="C5" t="n">
-        <v>61907.51</v>
+        <v>30.2141</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9704</v>
       </c>
     </row>
     <row r="6">
@@ -833,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4167</v>
+        <v>0.3754</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3232</v>
+        <v>0.3589</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1973</v>
+        <v>0.2956</v>
       </c>
     </row>
     <row r="7">
@@ -847,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.5612</v>
+        <v>0.1746</v>
       </c>
       <c r="C7" t="n">
-        <v>68203.7739</v>
+        <v>44.7064</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9969</v>
       </c>
     </row>
     <row r="8">
@@ -861,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.0336</v>
+        <v>-1.5031</v>
       </c>
       <c r="C8" t="n">
-        <v>58893.6987</v>
+        <v>26.1074</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9541</v>
       </c>
     </row>
     <row r="9">
@@ -875,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.9034</v>
+        <v>-1.3778</v>
       </c>
       <c r="C9" t="n">
-        <v>74191.5672</v>
+        <v>46.1469</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9762</v>
       </c>
     </row>
     <row r="10">
@@ -889,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.048</v>
+        <v>-0.0669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9843</v>
+        <v>1.2079</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9611</v>
+        <v>0.9558</v>
       </c>
     </row>
     <row r="11">
@@ -903,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4391</v>
+        <v>0.5245</v>
       </c>
       <c r="C11" t="n">
-        <v>3.125</v>
+        <v>3.1689</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8883</v>
+        <v>0.8685</v>
       </c>
     </row>
     <row r="12">
@@ -917,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8782</v>
+        <v>1.0491</v>
       </c>
       <c r="C12" t="n">
-        <v>5.3822</v>
+        <v>5.4201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8704</v>
+        <v>0.8465</v>
       </c>
     </row>
     <row r="13">
@@ -931,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>1.3151</v>
+        <v>1.5708</v>
       </c>
       <c r="C13" t="n">
-        <v>6.6563</v>
+        <v>6.6226</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8434</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="14">
@@ -945,13 +945,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>1.7624</v>
+        <v>2.0869</v>
       </c>
       <c r="C14" t="n">
-        <v>6.9234</v>
+        <v>6.8226</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7991</v>
+        <v>0.7597</v>
       </c>
     </row>
     <row r="15">
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>2.03</v>
+        <v>2.3804</v>
       </c>
       <c r="C15" t="n">
-        <v>6.8475</v>
+        <v>6.7545</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7669</v>
+        <v>0.7245</v>
       </c>
     </row>
     <row r="16">
@@ -973,13 +973,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>2.2062</v>
+        <v>2.6176</v>
       </c>
       <c r="C16" t="n">
-        <v>6.858</v>
+        <v>6.7715</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7477</v>
+        <v>0.6991</v>
       </c>
     </row>
     <row r="17">
@@ -987,13 +987,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>2.392</v>
+        <v>2.8467</v>
       </c>
       <c r="C17" t="n">
-        <v>6.8839</v>
+        <v>6.808</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7282</v>
+        <v>0.6758</v>
       </c>
     </row>
     <row r="18">
@@ -1001,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>2.7592</v>
+        <v>3.1535</v>
       </c>
       <c r="C18" t="n">
-        <v>6.9302</v>
+        <v>6.8716</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6905</v>
+        <v>0.6463</v>
       </c>
     </row>
     <row r="19">
@@ -1015,13 +1015,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>2.1065</v>
+        <v>2.4883</v>
       </c>
       <c r="C19" t="n">
-        <v>6.9411</v>
+        <v>6.9017</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7615</v>
+        <v>0.7184</v>
       </c>
     </row>
     <row r="20">
@@ -1029,13 +1029,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9034</v>
+        <v>1.3112</v>
       </c>
       <c r="C20" t="n">
-        <v>7.1055</v>
+        <v>7.0847</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8988</v>
+        <v>0.8532</v>
       </c>
     </row>
     <row r="21">
@@ -1043,13 +1043,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3053</v>
+        <v>0.1292</v>
       </c>
       <c r="C21" t="n">
-        <v>7.79</v>
+        <v>7.8209</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9687</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="22">
@@ -1057,13 +1057,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.5141</v>
+        <v>-1.0528</v>
       </c>
       <c r="C22" t="n">
-        <v>9.2468</v>
+        <v>9.3683</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8699</v>
+        <v>0.9105</v>
       </c>
     </row>
     <row r="23">
@@ -1071,13 +1071,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6111</v>
+        <v>-0.0885</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1794</v>
+        <v>0.1748</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0007</v>
+        <v>0.6126</v>
       </c>
     </row>
   </sheetData>
